--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>hfusfhsejhweg</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -341,7 +349,13 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,17 +24,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>hfusfhsejhweg</t>
+    <t>x-path for flipkartr</t>
+  </si>
+  <si>
+    <t>function name</t>
+  </si>
+  <si>
+    <t>x-path name</t>
+  </si>
+  <si>
+    <t>become a seller</t>
+  </si>
+  <si>
+    <t>//a[@class="_3-PJz-"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,8 +82,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,18 +373,79 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -39,6 +39,12 @@
   </si>
   <si>
     <t>//a[@class="_3-PJz-"]</t>
+  </si>
+  <si>
+    <t>searh for product brand and more</t>
+  </si>
+  <si>
+    <t>//input[@class="_3704LK"]</t>
   </si>
 </sst>
 </file>
@@ -373,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -437,13 +443,30 @@
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
     </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:J4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -45,6 +45,39 @@
   </si>
   <si>
     <t>//input[@class="_3704LK"]</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>//a[@class="_1_3w1N"]</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>//*[@id="container"]/div/div[2]/div[1]/div[2]/div[5]/div/div/div/div</t>
+  </si>
+  <si>
+    <t>explore Plus</t>
+  </si>
+  <si>
+    <t>//a[text()="Explore"]</t>
+  </si>
+  <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>//div[@class="xtXmba"and text()="Grocery"]</t>
+  </si>
+  <si>
+    <t>view all for best electronics</t>
+  </si>
+  <si>
+    <t>/html/body/div/div/div[4]/div[3]/div[1]/div/div[1]/div/div/a-absolute x path</t>
+  </si>
+  <si>
+    <t>//div[3]/div[1]/div/div[1]/div/div/a-relative x path</t>
   </si>
 </sst>
 </file>
@@ -379,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="F14" sqref="F14:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,8 +491,154 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="19">
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="F9:I9"/>
+    <mergeCell ref="A10:E11"/>
+    <mergeCell ref="F10:I11"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="F7:I8"/>
+    <mergeCell ref="A7:E8"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="G3:K3"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -78,6 +78,33 @@
   </si>
   <si>
     <t>//div[3]/div[1]/div/div[1]/div/div/a-relative x path</t>
+  </si>
+  <si>
+    <t>akasa air</t>
+  </si>
+  <si>
+    <t>//img[@class="_14mA3H"]</t>
+  </si>
+  <si>
+    <t>/div[@class="_3LU4EM" and text()="Top Mirrorless Cameras"]</t>
+  </si>
+  <si>
+    <t>for top microless camera</t>
+  </si>
+  <si>
+    <t>//span[@class="hDTmm5" and text()="Gift Cards"]</t>
+  </si>
+  <si>
+    <t>giftcard</t>
+  </si>
+  <si>
+    <t>//input[@class="_2IX_2- _3umUoc VJZDxU"]</t>
+  </si>
+  <si>
+    <t>request for otp</t>
+  </si>
+  <si>
+    <t>//button[@class="_2KpZ6l _2HKlqd _3AWRsL"]</t>
   </si>
 </sst>
 </file>
@@ -412,10 +439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:I15"/>
+      <selection activeCell="F23" sqref="F23:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -625,12 +652,141 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
     </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="29">
+    <mergeCell ref="A23:E24"/>
+    <mergeCell ref="F23:I24"/>
+    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:I22"/>
     <mergeCell ref="A12:E13"/>
     <mergeCell ref="F12:I13"/>
     <mergeCell ref="A14:E15"/>
     <mergeCell ref="F14:I15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A10:E11"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -105,6 +105,54 @@
   </si>
   <si>
     <t>//button[@class="_2KpZ6l _2HKlqd _3AWRsL"]</t>
+  </si>
+  <si>
+    <t>create an account</t>
+  </si>
+  <si>
+    <t>//a[text()="New to Flipkart? Create an account"]</t>
+  </si>
+  <si>
+    <t>login page picture</t>
+  </si>
+  <si>
+    <t>//div[@class="_3oBhRa col col-2-5 _4H6HH5"]</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>//span[text()="Login"]</t>
+  </si>
+  <si>
+    <t>terms for use</t>
+  </si>
+  <si>
+    <t>//a[@class="_2ARnXM" and text()="Terms of Use"]</t>
+  </si>
+  <si>
+    <t>login verify</t>
+  </si>
+  <si>
+    <t>//button[@class="_2KpZ6l _14EHzR _3dESVI"]</t>
+  </si>
+  <si>
+    <t>cart</t>
+  </si>
+  <si>
+    <t>//a[@class="_3SkBxJ"]</t>
+  </si>
+  <si>
+    <t>place order</t>
+  </si>
+  <si>
+    <t>//button[@class="_2KpZ6l _2ObVJD _3AWRsL"]</t>
+  </si>
+  <si>
+    <t>know more</t>
+  </si>
+  <si>
+    <t>//a[@class="NcOwTe"]</t>
   </si>
 </sst>
 </file>
@@ -439,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23:I24"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38:I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -771,10 +819,212 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="29">
+  <mergeCells count="45">
+    <mergeCell ref="A34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="F30:I31"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="F32:I33"/>
     <mergeCell ref="A23:E24"/>
     <mergeCell ref="F23:I24"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:I28"/>
     <mergeCell ref="F17:I18"/>
     <mergeCell ref="A17:E18"/>
     <mergeCell ref="A19:E20"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>//a[@class="NcOwTe"]</t>
+  </si>
+  <si>
+    <t>My order</t>
+  </si>
+  <si>
+    <t>//a[@class="_16v3bB" and text()="MY ORDERS"]</t>
   </si>
 </sst>
 </file>
@@ -487,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K38"/>
+  <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38:I38"/>
+      <selection activeCell="F39" sqref="F39:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1005,38 +1011,43 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="45">
-    <mergeCell ref="A34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="A36:E37"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:I38"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="F30:I31"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="F23:I24"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:I22"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
+  <mergeCells count="47">
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A39:E40"/>
+    <mergeCell ref="F39:I40"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F4:J4"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A10:E11"/>
@@ -1045,13 +1056,36 @@
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I8"/>
     <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F4:J4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="F5:I5"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:I15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:I22"/>
+    <mergeCell ref="A23:E24"/>
+    <mergeCell ref="F23:I24"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="F30:I31"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="A34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -159,6 +159,18 @@
   </si>
   <si>
     <t>//a[@class="_16v3bB" and text()="MY ORDERS"]</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>//input[@class="_1w3ZZo _1YmvCG _2mFmU7" and @name="firstName"]</t>
+  </si>
+  <si>
+    <t>//input[@id="Male" and @class="_3DAmyP"]</t>
+  </si>
+  <si>
+    <t>male radio button</t>
   </si>
 </sst>
 </file>
@@ -493,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,7 +537,7 @@
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -533,13 +545,14 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
@@ -1037,17 +1050,73 @@
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
     </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="47">
+  <mergeCells count="51">
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="F41:I42"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="F43:I44"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A39:E40"/>
     <mergeCell ref="F39:I40"/>
     <mergeCell ref="A1:I2"/>
     <mergeCell ref="A3:E3"/>
-    <mergeCell ref="G3:K3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="F4:J4"/>
+    <mergeCell ref="F3:K3"/>
     <mergeCell ref="A9:E9"/>
     <mergeCell ref="F9:I9"/>
     <mergeCell ref="A10:E11"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -171,6 +171,18 @@
   </si>
   <si>
     <t>male radio button</t>
+  </si>
+  <si>
+    <t>E mail address</t>
+  </si>
+  <si>
+    <t>// span[@class="bgOhjx" and text()="Email Address" ]</t>
+  </si>
+  <si>
+    <t>E mail address input place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// input[@class="_1w3ZZo _3sranR _2mFmU7" and @name="email" ] </t>
   </si>
 </sst>
 </file>
@@ -505,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43:E44"/>
+      <selection activeCell="F47" sqref="F47:I48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,12 +1114,68 @@
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
     </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="51">
+  <mergeCells count="55">
+    <mergeCell ref="A47:E48"/>
+    <mergeCell ref="F47:I48"/>
     <mergeCell ref="A41:E42"/>
     <mergeCell ref="F41:I42"/>
     <mergeCell ref="A43:E44"/>
     <mergeCell ref="F43:I44"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="F45:I46"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A39:E40"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -183,6 +183,18 @@
   </si>
   <si>
     <t xml:space="preserve">// input[@class="_1w3ZZo _3sranR _2mFmU7" and @name="email" ] </t>
+  </si>
+  <si>
+    <t>pan card information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// div[@class="NS64GK" and text()="PAN Card Information" ]  </t>
+  </si>
+  <si>
+    <t>deactivate account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// div[@class="_3W6jk-" and text()="Deactivate Account" ]  </t>
   </si>
 </sst>
 </file>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K48"/>
+  <dimension ref="A1:K52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47:I48"/>
+      <selection activeCell="F51" sqref="F51:I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1166,10 +1178,66 @@
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
     </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="59">
     <mergeCell ref="A47:E48"/>
     <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="A51:E52"/>
+    <mergeCell ref="F51:I52"/>
     <mergeCell ref="A41:E42"/>
     <mergeCell ref="F41:I42"/>
     <mergeCell ref="A43:E44"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -195,6 +195,36 @@
   </si>
   <si>
     <t xml:space="preserve">// div[@class="_3W6jk-" and text()="Deactivate Account" ]  </t>
+  </si>
+  <si>
+    <t>show more item</t>
+  </si>
+  <si>
+    <t>// button[@class="_2KpZ6l _2jekE6" ]</t>
+  </si>
+  <si>
+    <t>select particular item</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// span[@class="row _1kkfO3 BqOr_g" and text()="THE MAPLES FASHION Baby Girls Above Knee..." ]  </t>
+  </si>
+  <si>
+    <t>filter on the way</t>
+  </si>
+  <si>
+    <t xml:space="preserve">// div[@class="YeQvMM" and text()="On the way"  ]  </t>
+  </si>
+  <si>
+    <t>mannage address</t>
+  </si>
+  <si>
+    <t>//div[@class="NS64GK" and text()="Manage Addresses"]</t>
+  </si>
+  <si>
+    <t>add new address</t>
+  </si>
+  <si>
+    <t>//img[@class="_1g8pEu"]</t>
   </si>
 </sst>
 </file>
@@ -529,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:K62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F51" sqref="F51:I52"/>
+      <selection activeCell="F61" sqref="F61:I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1230,8 +1260,148 @@
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
     </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="1"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="1"/>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1"/>
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G61" s="1"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="59">
+  <mergeCells count="69">
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="F59:I60"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="F53:I54"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="F55:I56"/>
+    <mergeCell ref="A57:E58"/>
+    <mergeCell ref="F57:I58"/>
     <mergeCell ref="A47:E48"/>
     <mergeCell ref="F47:I48"/>
     <mergeCell ref="A49:E50"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -225,6 +225,42 @@
   </si>
   <si>
     <t>//img[@class="_1g8pEu"]</t>
+  </si>
+  <si>
+    <t>profile image</t>
+  </si>
+  <si>
+    <t>//img[@class="_3X2gOt"]</t>
+  </si>
+  <si>
+    <t>form(in travel)</t>
+  </si>
+  <si>
+    <t>//input[@class="_1w3ZZo _1YBGQV _2EjOJB lZd1T6 _2vegSu _2mFmU7"]</t>
+  </si>
+  <si>
+    <t>depart on</t>
+  </si>
+  <si>
+    <t>//input[@class="_1w3ZZo _2gKfhi _2mFmU7" and @name="0-datefrom"]</t>
+  </si>
+  <si>
+    <t>return on</t>
+  </si>
+  <si>
+    <t>//input[@class="_1w3ZZo _2gKfhi _2mFmU7" and @name="0-dateto"]</t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>//button[@class="_2KpZ6l _1QYQF8 _3dESVI"]</t>
+  </si>
+  <si>
+    <t>bakground image</t>
+  </si>
+  <si>
+    <t>//div[@class="aCgX3e"]</t>
   </si>
 </sst>
 </file>
@@ -559,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61:I62"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="I78" sqref="I78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1390,12 +1426,180 @@
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
     </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G63" s="1"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="1"/>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
+      <c r="F71" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73" s="1"/>
+      <c r="C73" s="1"/>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
+      <c r="F73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" s="1"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1"/>
+      <c r="C74" s="1"/>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="69">
+  <mergeCells count="81">
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="A73:E74"/>
+    <mergeCell ref="F73:I74"/>
+    <mergeCell ref="A65:E66"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="F67:I68"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="F69:I70"/>
     <mergeCell ref="A59:E60"/>
     <mergeCell ref="F59:I60"/>
     <mergeCell ref="A61:E62"/>
     <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="F63:I64"/>
     <mergeCell ref="A53:E54"/>
     <mergeCell ref="F53:I54"/>
     <mergeCell ref="A55:E56"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -261,13 +261,19 @@
   </si>
   <si>
     <t>//div[@class="aCgX3e"]</t>
+  </si>
+  <si>
+    <t>x-path for orangeHRM</t>
+  </si>
+  <si>
+    <t>x-path</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,6 +284,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -304,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -314,6 +336,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K74"/>
+  <dimension ref="A1:K80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="I78" sqref="I78"/>
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,42 +1610,114 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B75" s="1"/>
+      <c r="C75" s="1"/>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1"/>
+      <c r="C77" s="1"/>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1"/>
+      <c r="C78" s="1"/>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1"/>
+      <c r="C79" s="1"/>
+      <c r="D79" s="1"/>
+      <c r="E79" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F79" s="1"/>
+      <c r="G79" s="1"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="81">
-    <mergeCell ref="A71:E72"/>
-    <mergeCell ref="F71:I72"/>
-    <mergeCell ref="A73:E74"/>
-    <mergeCell ref="F73:I74"/>
-    <mergeCell ref="A65:E66"/>
-    <mergeCell ref="F65:I66"/>
-    <mergeCell ref="A67:E68"/>
-    <mergeCell ref="F67:I68"/>
-    <mergeCell ref="A69:E70"/>
-    <mergeCell ref="F69:I70"/>
-    <mergeCell ref="A59:E60"/>
-    <mergeCell ref="F59:I60"/>
-    <mergeCell ref="A61:E62"/>
-    <mergeCell ref="F61:I62"/>
-    <mergeCell ref="A63:E64"/>
-    <mergeCell ref="F63:I64"/>
-    <mergeCell ref="A53:E54"/>
-    <mergeCell ref="F53:I54"/>
-    <mergeCell ref="A55:E56"/>
-    <mergeCell ref="F55:I56"/>
-    <mergeCell ref="A57:E58"/>
-    <mergeCell ref="F57:I58"/>
-    <mergeCell ref="A47:E48"/>
-    <mergeCell ref="F47:I48"/>
-    <mergeCell ref="A49:E50"/>
-    <mergeCell ref="F49:I50"/>
-    <mergeCell ref="A51:E52"/>
-    <mergeCell ref="F51:I52"/>
-    <mergeCell ref="A41:E42"/>
-    <mergeCell ref="F41:I42"/>
-    <mergeCell ref="A43:E44"/>
-    <mergeCell ref="F43:I44"/>
-    <mergeCell ref="A45:E46"/>
-    <mergeCell ref="F45:I46"/>
+  <mergeCells count="84">
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="A75:I78"/>
+    <mergeCell ref="A79:D80"/>
+    <mergeCell ref="E79:I80"/>
+    <mergeCell ref="A32:E33"/>
+    <mergeCell ref="F32:I33"/>
+    <mergeCell ref="A34:E35"/>
+    <mergeCell ref="F34:I35"/>
+    <mergeCell ref="A36:E37"/>
+    <mergeCell ref="F36:I37"/>
+    <mergeCell ref="A27:E28"/>
+    <mergeCell ref="F27:I28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="F29:I29"/>
+    <mergeCell ref="A30:E31"/>
+    <mergeCell ref="F30:I31"/>
+    <mergeCell ref="A21:E22"/>
+    <mergeCell ref="F21:I22"/>
+    <mergeCell ref="A23:E24"/>
+    <mergeCell ref="F23:I24"/>
+    <mergeCell ref="A25:E26"/>
+    <mergeCell ref="F25:I26"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:I16"/>
+    <mergeCell ref="F17:I18"/>
+    <mergeCell ref="A17:E18"/>
+    <mergeCell ref="A19:E20"/>
+    <mergeCell ref="F19:I20"/>
+    <mergeCell ref="A7:E8"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="F12:I13"/>
+    <mergeCell ref="A14:E15"/>
+    <mergeCell ref="F14:I15"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="A39:E40"/>
@@ -1634,37 +1734,40 @@
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I8"/>
-    <mergeCell ref="A7:E8"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="F12:I13"/>
-    <mergeCell ref="A14:E15"/>
-    <mergeCell ref="F14:I15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:I16"/>
-    <mergeCell ref="F17:I18"/>
-    <mergeCell ref="A17:E18"/>
-    <mergeCell ref="A19:E20"/>
-    <mergeCell ref="F19:I20"/>
-    <mergeCell ref="A21:E22"/>
-    <mergeCell ref="F21:I22"/>
-    <mergeCell ref="A23:E24"/>
-    <mergeCell ref="F23:I24"/>
-    <mergeCell ref="A25:E26"/>
-    <mergeCell ref="F25:I26"/>
-    <mergeCell ref="A27:E28"/>
-    <mergeCell ref="F27:I28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="F29:I29"/>
-    <mergeCell ref="A30:E31"/>
-    <mergeCell ref="F30:I31"/>
-    <mergeCell ref="A32:E33"/>
-    <mergeCell ref="F32:I33"/>
-    <mergeCell ref="A34:E35"/>
-    <mergeCell ref="F34:I35"/>
-    <mergeCell ref="A36:E37"/>
-    <mergeCell ref="F36:I37"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="F38:I38"/>
+    <mergeCell ref="A41:E42"/>
+    <mergeCell ref="F41:I42"/>
+    <mergeCell ref="A43:E44"/>
+    <mergeCell ref="F43:I44"/>
+    <mergeCell ref="A45:E46"/>
+    <mergeCell ref="F45:I46"/>
+    <mergeCell ref="A47:E48"/>
+    <mergeCell ref="F47:I48"/>
+    <mergeCell ref="A49:E50"/>
+    <mergeCell ref="F49:I50"/>
+    <mergeCell ref="A51:E52"/>
+    <mergeCell ref="F51:I52"/>
+    <mergeCell ref="A53:E54"/>
+    <mergeCell ref="F53:I54"/>
+    <mergeCell ref="A55:E56"/>
+    <mergeCell ref="F55:I56"/>
+    <mergeCell ref="A57:E58"/>
+    <mergeCell ref="F57:I58"/>
+    <mergeCell ref="A59:E60"/>
+    <mergeCell ref="F59:I60"/>
+    <mergeCell ref="A61:E62"/>
+    <mergeCell ref="F61:I62"/>
+    <mergeCell ref="A63:E64"/>
+    <mergeCell ref="F63:I64"/>
+    <mergeCell ref="A71:E72"/>
+    <mergeCell ref="F71:I72"/>
+    <mergeCell ref="A73:E74"/>
+    <mergeCell ref="F73:I74"/>
+    <mergeCell ref="A65:E66"/>
+    <mergeCell ref="F65:I66"/>
+    <mergeCell ref="A67:E68"/>
+    <mergeCell ref="F67:I68"/>
+    <mergeCell ref="A69:E70"/>
+    <mergeCell ref="F69:I70"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -267,6 +267,18 @@
   </si>
   <si>
     <t>x-path</t>
+  </si>
+  <si>
+    <t>orangeHRM logo</t>
+  </si>
+  <si>
+    <t>//a[@class="navbar-brand nav-logo"]</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>//a[@class="nav-link-hed" and text()="Solutions"]</t>
   </si>
 </sst>
 </file>
@@ -623,10 +635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:K84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81"/>
+      <selection activeCell="E83" sqref="E83:I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1682,8 +1694,64 @@
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
     </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="88">
+    <mergeCell ref="A81:D82"/>
+    <mergeCell ref="E81:I82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:I84"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="A75:I78"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -279,6 +279,30 @@
   </si>
   <si>
     <t>//a[@class="nav-link-hed" and text()="Solutions"]</t>
+  </si>
+  <si>
+    <t>enter your email address here</t>
+  </si>
+  <si>
+    <t>//input[@id="Form_submitForm_EmailHomePage"]</t>
+  </si>
+  <si>
+    <t>try it for free</t>
+  </si>
+  <si>
+    <t>//input[@id="Form_submitForm_action_request"]</t>
+  </si>
+  <si>
+    <t>//h3[@class="text-center"and text()="We have 5 million + active users worldwide"]</t>
+  </si>
+  <si>
+    <t>we have  5 million+activice users world</t>
+  </si>
+  <si>
+    <t>product tour</t>
+  </si>
+  <si>
+    <t>//div[@id="vp-preview"]</t>
   </si>
 </sst>
 </file>
@@ -635,10 +659,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K84"/>
+  <dimension ref="A1:K92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E83" sqref="E83:I84"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:I92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1746,12 +1770,124 @@
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
     </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F85" s="1"/>
+      <c r="G85" s="1"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="G86" s="1"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1"/>
+      <c r="C87" s="1"/>
+      <c r="D87" s="1"/>
+      <c r="E87" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1"/>
+      <c r="C88" s="1"/>
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1"/>
+      <c r="C89" s="1"/>
+      <c r="D89" s="1"/>
+      <c r="E89" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1"/>
+      <c r="C90" s="1"/>
+      <c r="D90" s="1"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+      <c r="H90" s="2"/>
+      <c r="I90" s="2"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F91" s="1"/>
+      <c r="G91" s="1"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92" s="1"/>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="G92" s="1"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
+  <mergeCells count="96">
+    <mergeCell ref="A87:D88"/>
+    <mergeCell ref="E87:I88"/>
+    <mergeCell ref="A89:D90"/>
+    <mergeCell ref="E89:I90"/>
+    <mergeCell ref="A91:D92"/>
+    <mergeCell ref="E91:I92"/>
     <mergeCell ref="A81:D82"/>
     <mergeCell ref="E81:I82"/>
     <mergeCell ref="A83:D84"/>
     <mergeCell ref="E83:I84"/>
+    <mergeCell ref="A85:D86"/>
+    <mergeCell ref="E85:I86"/>
     <mergeCell ref="A38:E38"/>
     <mergeCell ref="F38:I38"/>
     <mergeCell ref="A75:I78"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -303,13 +303,46 @@
   </si>
   <si>
     <t>//div[@id="vp-preview"]</t>
+  </si>
+  <si>
+    <t>learn more &gt;</t>
+  </si>
+  <si>
+    <t>//div[@class="link-icon"and @style="background-color: ;"]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HR adminstraction </t>
+  </si>
+  <si>
+    <t>//img[@class="lazyloaded"and @src="/assets/Uploads/hr-administration.png.webp"]</t>
+  </si>
+  <si>
+    <t>book for free demo</t>
+  </si>
+  <si>
+    <t>your full name</t>
+  </si>
+  <si>
+    <t>//input[@id="Form_getForm_FullName"]</t>
+  </si>
+  <si>
+    <t>business email</t>
+  </si>
+  <si>
+    <t>//input[@id="Form_getForm_Email"and @tabindex="2"]</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>//select[@id="Form_getForm_Country"and @tabindex="3" and@class="dropdown"]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +361,14 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -362,7 +403,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +415,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -659,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K92"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E91" sqref="E91:I92"/>
+    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103:I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1874,8 +1918,169 @@
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
     </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="G97" s="1"/>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1"/>
+      <c r="C99" s="1"/>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99" s="1"/>
+      <c r="G99" s="1"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1"/>
+      <c r="C100" s="1"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1"/>
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F101" s="2"/>
+      <c r="G101" s="2"/>
+      <c r="H101" s="2"/>
+      <c r="I101" s="2"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
+      <c r="H102" s="2"/>
+      <c r="I102" s="2"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1"/>
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+      <c r="I103" s="2"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1"/>
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="107">
+    <mergeCell ref="A99:D100"/>
+    <mergeCell ref="E99:I100"/>
+    <mergeCell ref="A101:D102"/>
+    <mergeCell ref="E101:I102"/>
+    <mergeCell ref="A103:D104"/>
+    <mergeCell ref="E103:I104"/>
+    <mergeCell ref="A93:D94"/>
+    <mergeCell ref="E93:I94"/>
+    <mergeCell ref="A95:D96"/>
+    <mergeCell ref="E95:I96"/>
+    <mergeCell ref="A97:G98"/>
     <mergeCell ref="A87:D88"/>
     <mergeCell ref="E87:I88"/>
     <mergeCell ref="A89:D90"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>//select[@id="Form_getForm_Country"and @tabindex="3" and@class="dropdown"]</t>
+  </si>
+  <si>
+    <t>get a free demo</t>
+  </si>
+  <si>
+    <t>//input[@id="Form_getForm_action_submitForm"and @tabindex="5" and@name="action_submitForm"]</t>
   </si>
 </sst>
 </file>
@@ -703,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K104"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103:I104"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="X104" sqref="X104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2068,8 +2074,43 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
+    <row r="105" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1"/>
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1"/>
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="107">
+  <mergeCells count="109">
+    <mergeCell ref="A105:D106"/>
+    <mergeCell ref="E105:I107"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="E99:I100"/>
     <mergeCell ref="A101:D102"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -342,6 +342,12 @@
   </si>
   <si>
     <t>//input[@id="Form_getForm_action_submitForm"and @tabindex="5" and@name="action_submitForm"]</t>
+  </si>
+  <si>
+    <t>accept cookies</t>
+  </si>
+  <si>
+    <t>//a[@title="Accept Cookies"]</t>
   </si>
 </sst>
 </file>
@@ -709,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="X104" sqref="X104"/>
+      <selection activeCell="E108" sqref="E108:I109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2107,10 +2113,38 @@
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="F108" s="1"/>
+      <c r="G108" s="1"/>
+      <c r="H108" s="1"/>
+      <c r="I108" s="1"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+      <c r="G109" s="1"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="109">
+  <mergeCells count="111">
     <mergeCell ref="A105:D106"/>
     <mergeCell ref="E105:I107"/>
+    <mergeCell ref="A108:D109"/>
+    <mergeCell ref="E108:I109"/>
     <mergeCell ref="A99:D100"/>
     <mergeCell ref="E99:I100"/>
     <mergeCell ref="A101:D102"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -348,6 +348,38 @@
   </si>
   <si>
     <t>//a[@title="Accept Cookies"]</t>
+  </si>
+  <si>
+    <t>primus bank</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x-path name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>//a[@href="home.aspx"]</t>
   </si>
 </sst>
 </file>
@@ -715,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K117"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E108" sqref="E108:I109"/>
+      <selection activeCell="E116" sqref="E116:J117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1982,7 +2014,7 @@
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>97</v>
       </c>
@@ -1993,7 +2025,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -2002,7 +2034,7 @@
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
@@ -2017,7 +2049,7 @@
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -2028,7 +2060,7 @@
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
@@ -2043,7 +2075,7 @@
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
@@ -2054,7 +2086,7 @@
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
@@ -2069,7 +2101,7 @@
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
@@ -2080,7 +2112,7 @@
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
     </row>
-    <row r="105" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:10" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
@@ -2095,7 +2127,7 @@
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
@@ -2106,14 +2138,14 @@
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>106</v>
       </c>
@@ -2128,7 +2160,7 @@
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
@@ -2139,8 +2171,107 @@
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
     </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+      <c r="G111" s="1"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="1"/>
+      <c r="J111" s="1"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+      <c r="G112" s="1"/>
+      <c r="H112" s="1"/>
+      <c r="I112" s="1"/>
+      <c r="J112" s="1"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+      <c r="G113" s="1"/>
+      <c r="H113" s="1"/>
+      <c r="I113" s="1"/>
+      <c r="J113" s="1"/>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A114" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1"/>
+      <c r="C114" s="1"/>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F114" s="1"/>
+      <c r="G114" s="1"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="1"/>
+      <c r="J114" s="1"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1"/>
+      <c r="C115" s="1"/>
+      <c r="D115" s="1"/>
+      <c r="E115" s="1"/>
+      <c r="F115" s="1"/>
+      <c r="G115" s="1"/>
+      <c r="H115" s="1"/>
+      <c r="I115" s="1"/>
+      <c r="J115" s="1"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B116" s="1"/>
+      <c r="C116" s="1"/>
+      <c r="D116" s="1"/>
+      <c r="E116" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="F116" s="1"/>
+      <c r="G116" s="1"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1"/>
+      <c r="J116" s="1"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1"/>
+      <c r="C117" s="1"/>
+      <c r="D117" s="1"/>
+      <c r="E117" s="1"/>
+      <c r="F117" s="1"/>
+      <c r="G117" s="1"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="1"/>
+      <c r="J117" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="111">
+  <mergeCells count="116">
+    <mergeCell ref="A111:J113"/>
+    <mergeCell ref="A114:D115"/>
+    <mergeCell ref="E114:J115"/>
+    <mergeCell ref="A116:D117"/>
+    <mergeCell ref="E116:J117"/>
     <mergeCell ref="A105:D106"/>
     <mergeCell ref="E105:I107"/>
     <mergeCell ref="A108:D109"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -380,6 +380,12 @@
   </si>
   <si>
     <t>//a[@href="home.aspx"]</t>
+  </si>
+  <si>
+    <t>customer login</t>
+  </si>
+  <si>
+    <t>//font[@face="Verdana" and text()="Customer Login"]</t>
   </si>
 </sst>
 </file>
@@ -747,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K117"/>
+  <dimension ref="A1:K119"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E116" sqref="E116:J117"/>
+      <selection activeCell="E118" sqref="E118:J119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,8 +2271,38 @@
       <c r="I117" s="1"/>
       <c r="J117" s="1"/>
     </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="1"/>
+      <c r="C118" s="1"/>
+      <c r="D118" s="1"/>
+      <c r="E118" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F118" s="1"/>
+      <c r="G118" s="1"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="1"/>
+      <c r="J118" s="1"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1"/>
+      <c r="C119" s="1"/>
+      <c r="D119" s="1"/>
+      <c r="E119" s="1"/>
+      <c r="F119" s="1"/>
+      <c r="G119" s="1"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="1"/>
+      <c r="J119" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="116">
+  <mergeCells count="118">
+    <mergeCell ref="A118:D119"/>
+    <mergeCell ref="E118:J119"/>
     <mergeCell ref="A111:J113"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="E114:J115"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>//a[@title="Accept Cookies"]</t>
-  </si>
-  <si>
-    <t>primus bank</t>
   </si>
   <si>
     <r>
@@ -386,6 +383,50 @@
   </si>
   <si>
     <t>//font[@face="Verdana" and text()="Customer Login"]</t>
+  </si>
+  <si>
+    <t>primus bank home page</t>
+  </si>
+  <si>
+    <t>//input[@id="personal"]</t>
+  </si>
+  <si>
+    <t>personal</t>
+  </si>
+  <si>
+    <r>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Banker login</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)select branch</t>
+    </r>
+  </si>
+  <si>
+    <t>//select[@id="drlist"]</t>
+  </si>
+  <si>
+    <t>user name</t>
+  </si>
+  <si>
+    <t>//input[@id="txtuId"]</t>
   </si>
 </sst>
 </file>
@@ -753,10 +794,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K119"/>
+  <dimension ref="A1:K125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118:J119"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E124" sqref="E124:J125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2179,7 +2220,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
@@ -2223,7 +2264,7 @@
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F114" s="1"/>
       <c r="G114" s="1"/>
@@ -2245,13 +2286,13 @@
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
       <c r="E116" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F116" s="1"/>
       <c r="G116" s="1"/>
@@ -2273,13 +2314,13 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1"/>
@@ -2299,10 +2340,100 @@
       <c r="I119" s="1"/>
       <c r="J119" s="1"/>
     </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B120" s="1"/>
+      <c r="C120" s="1"/>
+      <c r="D120" s="1"/>
+      <c r="E120" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F120" s="1"/>
+      <c r="G120" s="1"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="1"/>
+      <c r="J120" s="1"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A121" s="1"/>
+      <c r="B121" s="1"/>
+      <c r="C121" s="1"/>
+      <c r="D121" s="1"/>
+      <c r="E121" s="1"/>
+      <c r="F121" s="1"/>
+      <c r="G121" s="1"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="1"/>
+      <c r="J121" s="1"/>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B122" s="1"/>
+      <c r="C122" s="1"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F122" s="1"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="1"/>
+      <c r="J122" s="1"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A123" s="1"/>
+      <c r="B123" s="1"/>
+      <c r="C123" s="1"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="1"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="1"/>
+      <c r="J123" s="1"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B124" s="1"/>
+      <c r="C124" s="1"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F124" s="1"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="1"/>
+      <c r="J124" s="1"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A125" s="1"/>
+      <c r="B125" s="1"/>
+      <c r="C125" s="1"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="1"/>
+      <c r="G125" s="1"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="1"/>
+      <c r="J125" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="118">
+  <mergeCells count="124">
+    <mergeCell ref="A124:D125"/>
+    <mergeCell ref="E124:J125"/>
     <mergeCell ref="A118:D119"/>
     <mergeCell ref="E118:J119"/>
+    <mergeCell ref="A120:D121"/>
+    <mergeCell ref="E120:J121"/>
+    <mergeCell ref="A122:D123"/>
+    <mergeCell ref="E122:J123"/>
     <mergeCell ref="A111:J113"/>
     <mergeCell ref="A114:D115"/>
     <mergeCell ref="E114:J115"/>

--- a/xPath.xlsx
+++ b/xPath.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="121">
   <si>
     <t>x-path for flipkartr</t>
   </si>
@@ -427,6 +427,9 @@
   </si>
   <si>
     <t>//input[@id="txtuId"]</t>
+  </si>
+  <si>
+    <t>//input[@id="login"]</t>
   </si>
 </sst>
 </file>
@@ -794,10 +797,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K125"/>
+  <dimension ref="A1:K127"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E124" sqref="E124:J125"/>
+      <selection activeCell="E126" sqref="E126:J127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2424,10 +2427,40 @@
       <c r="I125" s="1"/>
       <c r="J125" s="1"/>
     </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B126" s="1"/>
+      <c r="C126" s="1"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="F126" s="1"/>
+      <c r="G126" s="1"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="1"/>
+      <c r="J126" s="1"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A127" s="1"/>
+      <c r="B127" s="1"/>
+      <c r="C127" s="1"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="1"/>
+      <c r="G127" s="1"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="1"/>
+      <c r="J127" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="126">
     <mergeCell ref="A124:D125"/>
     <mergeCell ref="E124:J125"/>
+    <mergeCell ref="A126:D127"/>
+    <mergeCell ref="E126:J127"/>
     <mergeCell ref="A118:D119"/>
     <mergeCell ref="E118:J119"/>
     <mergeCell ref="A120:D121"/>
